--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\PycharmProjects\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA60BC-C7F2-42D0-9250-07EF28A84E19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCB3A71-3334-48F2-AFF7-611B8B44996A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="480" windowWidth="21600" windowHeight="11385" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="160">
   <si>
     <t>Categories</t>
   </si>
@@ -355,13 +355,163 @@
   </si>
   <si>
     <t>בחר</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>פריט</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>כמות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחיר </t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>סך הכל</t>
+  </si>
+  <si>
+    <t>Sub total</t>
+  </si>
+  <si>
+    <t>חשבון מוצרים</t>
+  </si>
+  <si>
+    <t>To:</t>
+  </si>
+  <si>
+    <t>אל</t>
+  </si>
+  <si>
+    <t>Delivery and Payment</t>
+  </si>
+  <si>
+    <t>משלוח ותשלום</t>
+  </si>
+  <si>
+    <t>Delivery needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יבוצע משלוח </t>
+  </si>
+  <si>
+    <t>contact person and delivery address</t>
+  </si>
+  <si>
+    <t>איש הקשר והכתובת למשלוח</t>
+  </si>
+  <si>
+    <t>איסוף עצמי</t>
+  </si>
+  <si>
+    <t>Self picking</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>חשבונית</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>שלח</t>
+  </si>
+  <si>
+    <t>costumer details</t>
+  </si>
+  <si>
+    <t>Contact person and delivery address</t>
+  </si>
+  <si>
+    <t>פרטי לקוח</t>
+  </si>
+  <si>
+    <t>איש קשר וכתובת למשלוח</t>
+  </si>
+  <si>
+    <t>My Orders</t>
+  </si>
+  <si>
+    <t>ההזמנות שלי</t>
+  </si>
+  <si>
+    <t>My Addresses</t>
+  </si>
+  <si>
+    <t>Your Password</t>
+  </si>
+  <si>
+    <t>הכתובת שלי</t>
+  </si>
+  <si>
+    <t>שינוי סיסמא</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>שלום</t>
+  </si>
+  <si>
+    <t>Request a Password Reset</t>
+  </si>
+  <si>
+    <t>אזור איפוס סיסמא</t>
+  </si>
+  <si>
+    <t>Old Password</t>
+  </si>
+  <si>
+    <t>סיסמא ישנה</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>סיסמא חדשה</t>
+  </si>
+  <si>
+    <t>Repeat New Password</t>
+  </si>
+  <si>
+    <t>חזור על הסיסמא החדשה</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>אפס סיסמא</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>תאריך</t>
+  </si>
+  <si>
+    <t>No delivery</t>
+  </si>
+  <si>
+    <t>ללא משלוח</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +525,11 @@
       <color rgb="FFA9B7C6"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF91699C"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -397,11 +552,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1124,7 +1280,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:10">
       <c r="B49" t="s">
         <v>92</v>
       </c>
@@ -1132,7 +1288,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:10">
       <c r="B50" s="1" t="s">
         <v>94</v>
       </c>
@@ -1140,7 +1296,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:10">
       <c r="B51" t="s">
         <v>96</v>
       </c>
@@ -1148,7 +1304,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:10">
       <c r="B52" t="s">
         <v>98</v>
       </c>
@@ -1156,7 +1312,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:10">
       <c r="B53" t="s">
         <v>100</v>
       </c>
@@ -1164,15 +1320,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:10">
       <c r="B54" t="s">
         <v>102</v>
       </c>
       <c r="C54" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="55" spans="2:3">
+      <c r="J54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
       <c r="B55" t="s">
         <v>104</v>
       </c>
@@ -1180,7 +1339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:10">
       <c r="B56" t="s">
         <v>106</v>
       </c>
@@ -1188,12 +1347,228 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:10">
       <c r="B57" t="s">
         <v>108</v>
       </c>
       <c r="C57" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="15">
+      <c r="B67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\PycharmProjects\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCB3A71-3334-48F2-AFF7-611B8B44996A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1A256-D34A-45BC-80E8-C85A1DA8FEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="165">
   <si>
     <t>Categories</t>
   </si>
@@ -505,6 +505,21 @@
   </si>
   <si>
     <t>ללא משלוח</t>
+  </si>
+  <si>
+    <t>נוצרה ב</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>לפרטים</t>
+  </si>
+  <si>
+    <t>עלויות משלוח</t>
   </si>
 </sst>
 </file>
@@ -872,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1571,6 +1586,38 @@
         <v>159</v>
       </c>
     </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\PycharmProjects\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1A256-D34A-45BC-80E8-C85A1DA8FEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F8A5AC-BABD-4C2E-8569-819EAC799258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
   <si>
     <t>Categories</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>עלויות משלוח</t>
+  </si>
+  <si>
+    <t>Costumer Details</t>
   </si>
 </sst>
 </file>
@@ -887,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1618,6 +1621,14 @@
         <v>97</v>
       </c>
     </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\PycharmProjects\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F8A5AC-BABD-4C2E-8569-819EAC799258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7946E2D2-7081-4EF8-B14F-52B8132DD042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
+    <workbookView xWindow="2220" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="195">
   <si>
     <t>Categories</t>
   </si>
@@ -523,6 +523,93 @@
   </si>
   <si>
     <t>Costumer Details</t>
+  </si>
+  <si>
+    <t>All categories</t>
+  </si>
+  <si>
+    <t>כל המחלקות</t>
+  </si>
+  <si>
+    <t>Add New Category</t>
+  </si>
+  <si>
+    <t>הוסף מחלקה חדשה</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>אישור</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add Product</t>
+  </si>
+  <si>
+    <t>הוסף מוצר</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add New Product</t>
+  </si>
+  <si>
+    <t>הוסף מוצר חדש</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>מוצרים</t>
+  </si>
+  <si>
+    <t>All Products</t>
+  </si>
+  <si>
+    <t>כל המוצרים</t>
+  </si>
+  <si>
+    <t>Add Product</t>
+  </si>
+  <si>
+    <t>Deliveries</t>
+  </si>
+  <si>
+    <t>משלוחים</t>
+  </si>
+  <si>
+    <t>All Deliveries</t>
+  </si>
+  <si>
+    <t>כל המשלוחים</t>
+  </si>
+  <si>
+    <t>Add Delivery</t>
+  </si>
+  <si>
+    <t>הוסף משלוח</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>לקוחות</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>תצורה</t>
+  </si>
+  <si>
+    <t>File import/export</t>
+  </si>
+  <si>
+    <t>ייבוא יצוא נתונים מקובץ</t>
+  </si>
+  <si>
+    <t>Search Product</t>
   </si>
 </sst>
 </file>
@@ -890,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1298,7 +1385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:3">
       <c r="B49" t="s">
         <v>92</v>
       </c>
@@ -1306,7 +1393,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:3">
       <c r="B50" s="1" t="s">
         <v>94</v>
       </c>
@@ -1314,7 +1401,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:3">
       <c r="B51" t="s">
         <v>96</v>
       </c>
@@ -1322,7 +1409,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
         <v>98</v>
       </c>
@@ -1330,7 +1417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:3">
       <c r="B53" t="s">
         <v>100</v>
       </c>
@@ -1338,18 +1425,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:3">
       <c r="B54" t="s">
         <v>102</v>
       </c>
       <c r="C54" t="s">
         <v>103</v>
       </c>
-      <c r="J54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
+    </row>
+    <row r="55" spans="2:3">
       <c r="B55" t="s">
         <v>104</v>
       </c>
@@ -1357,7 +1441,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:3">
       <c r="B56" t="s">
         <v>106</v>
       </c>
@@ -1365,7 +1449,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:3">
       <c r="B57" t="s">
         <v>108</v>
       </c>
@@ -1373,7 +1457,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:3">
       <c r="B58" t="s">
         <v>110</v>
       </c>
@@ -1381,7 +1465,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:3">
       <c r="B59" t="s">
         <v>112</v>
       </c>
@@ -1389,7 +1473,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:3">
       <c r="B60" t="s">
         <v>115</v>
       </c>
@@ -1397,7 +1481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:3">
       <c r="B61" t="s">
         <v>116</v>
       </c>
@@ -1405,7 +1489,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:3">
       <c r="B62" t="s">
         <v>118</v>
       </c>
@@ -1413,7 +1497,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:3">
       <c r="B63" t="s">
         <v>120</v>
       </c>
@@ -1421,7 +1505,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:3">
       <c r="B64" t="s">
         <v>122</v>
       </c>
@@ -1627,6 +1711,142 @@
       </c>
       <c r="C89" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
+        <v>187</v>
+      </c>
+      <c r="C102" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
+        <v>194</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\PycharmProjects\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7946E2D2-7081-4EF8-B14F-52B8132DD042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29344D-656F-42E0-99DF-203595BACC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="200">
   <si>
     <t>Categories</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Sub- Total</t>
   </si>
   <si>
-    <t>שקלים</t>
-  </si>
-  <si>
     <t>פריט בודד</t>
   </si>
   <si>
@@ -610,6 +607,24 @@
   </si>
   <si>
     <t>Search Product</t>
+  </si>
+  <si>
+    <t>Today's Combo Offer</t>
+  </si>
+  <si>
+    <t>המלצת היום</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>הוסף לעגלה</t>
+  </si>
+  <si>
+    <t>שח</t>
+  </si>
+  <si>
+    <t>on sale</t>
   </si>
 </sst>
 </file>
@@ -977,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1278,7 +1293,7 @@
         <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -1286,7 +1301,7 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -1294,367 +1309,367 @@
         <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
         <v>70</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
         <v>72</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
         <v>74</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
         <v>76</v>
-      </c>
-      <c r="C41" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
         <v>78</v>
-      </c>
-      <c r="C42" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
         <v>80</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
         <v>82</v>
-      </c>
-      <c r="C44" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
         <v>84</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
         <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
         <v>88</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
         <v>90</v>
-      </c>
-      <c r="C48" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
         <v>92</v>
-      </c>
-      <c r="C49" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
         <v>94</v>
-      </c>
-      <c r="C50" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
         <v>96</v>
-      </c>
-      <c r="C51" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
         <v>98</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
         <v>100</v>
-      </c>
-      <c r="C53" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
         <v>102</v>
-      </c>
-      <c r="C54" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
         <v>104</v>
-      </c>
-      <c r="C55" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
         <v>106</v>
-      </c>
-      <c r="C56" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
         <v>108</v>
-      </c>
-      <c r="C57" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
         <v>110</v>
-      </c>
-      <c r="C58" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" t="s">
         <v>116</v>
-      </c>
-      <c r="C61" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
         <v>118</v>
-      </c>
-      <c r="C62" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
         <v>120</v>
-      </c>
-      <c r="C63" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" t="s">
         <v>122</v>
-      </c>
-      <c r="C64" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
         <v>124</v>
-      </c>
-      <c r="C65" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
         <v>126</v>
-      </c>
-      <c r="C66" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="15">
       <c r="B67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" t="s">
         <v>98</v>
-      </c>
-      <c r="C67" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" t="s">
         <v>130</v>
-      </c>
-      <c r="C69" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
         <v>132</v>
-      </c>
-      <c r="C70" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
         <v>138</v>
-      </c>
-      <c r="C73" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
         <v>144</v>
-      </c>
-      <c r="C76" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" t="s">
         <v>146</v>
-      </c>
-      <c r="C77" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" t="s">
         <v>148</v>
-      </c>
-      <c r="C78" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
         <v>150</v>
-      </c>
-      <c r="C79" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" t="s">
         <v>152</v>
-      </c>
-      <c r="C80" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" t="s">
         <v>154</v>
-      </c>
-      <c r="C81" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" t="s">
         <v>156</v>
-      </c>
-      <c r="C82" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="83" spans="2:3">
@@ -1667,50 +1682,50 @@
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" t="s">
         <v>158</v>
-      </c>
-      <c r="C84" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" t="s">
         <v>162</v>
-      </c>
-      <c r="C86" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
         <v>96</v>
-      </c>
-      <c r="C88" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="2:3">
@@ -1723,130 +1738,170 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
         <v>166</v>
-      </c>
-      <c r="C91" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" t="s">
         <v>168</v>
-      </c>
-      <c r="C92" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" t="s">
         <v>170</v>
-      </c>
-      <c r="C93" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s">
         <v>172</v>
-      </c>
-      <c r="C94" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" t="s">
         <v>174</v>
-      </c>
-      <c r="C95" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" t="s">
         <v>176</v>
-      </c>
-      <c r="C96" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" t="s">
         <v>178</v>
-      </c>
-      <c r="C97" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" t="s">
         <v>181</v>
-      </c>
-      <c r="C99" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" t="s">
         <v>183</v>
-      </c>
-      <c r="C100" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101" t="s">
         <v>185</v>
-      </c>
-      <c r="C101" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" t="s">
         <v>188</v>
-      </c>
-      <c r="C103" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" t="s">
         <v>190</v>
-      </c>
-      <c r="C104" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" t="s">
         <v>192</v>
-      </c>
-      <c r="C105" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\PycharmProjects\flask-shop-master\flaskshop\static\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29344D-656F-42E0-99DF-203595BACC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C1BDFE-425A-4D78-B62B-E6574A5681E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="204">
   <si>
     <t>Categories</t>
   </si>
@@ -625,6 +625,18 @@
   </si>
   <si>
     <t>on sale</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>מיוחד</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>ראה מוצר</t>
   </si>
 </sst>
 </file>
@@ -635,7 +647,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -992,16 +1004,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1544,7 +1556,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="15">
+    <row r="67" spans="2:3" ht="15.5">
       <c r="B67" s="2" t="s">
         <v>97</v>
       </c>
@@ -1902,6 +1914,22 @@
       </c>
       <c r="C111" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C1BDFE-425A-4D78-B62B-E6574A5681E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F717A-75BE-4ADE-94A0-A5A62B899660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="207">
   <si>
     <t>Categories</t>
   </si>
@@ -597,9 +597,6 @@
     <t>Configuration</t>
   </si>
   <si>
-    <t>תצורה</t>
-  </si>
-  <si>
     <t>File import/export</t>
   </si>
   <si>
@@ -637,6 +634,18 @@
   </si>
   <si>
     <t>ראה מוצר</t>
+  </si>
+  <si>
+    <t>הגדרות</t>
+  </si>
+  <si>
+    <t>הזמנות</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>תוספות למוצרים</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1313,7 +1322,7 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -1841,7 +1850,7 @@
         <v>186</v>
       </c>
       <c r="C102" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="2:3">
@@ -1857,20 +1866,20 @@
         <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" t="s">
         <v>191</v>
-      </c>
-      <c r="C105" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -1878,7 +1887,7 @@
     </row>
     <row r="107" spans="2:3">
       <c r="B107" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -1886,18 +1895,18 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" t="s">
         <v>194</v>
-      </c>
-      <c r="C108" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" t="s">
+        <v>195</v>
+      </c>
+      <c r="C109" t="s">
         <v>196</v>
-      </c>
-      <c r="C109" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="110" spans="2:3">
@@ -1905,12 +1914,12 @@
         <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -1918,18 +1927,26 @@
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" t="s">
         <v>200</v>
-      </c>
-      <c r="C112" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" t="s">
         <v>202</v>
       </c>
-      <c r="C113" t="s">
-        <v>203</v>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F717A-75BE-4ADE-94A0-A5A62B899660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B25E944-DDAE-468A-93DB-3B0CDF29D273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B25E944-DDAE-468A-93DB-3B0CDF29D273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E33527-8DC8-42FF-B91F-91EF81277EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
+    <workbookView xWindow="3080" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="211">
   <si>
     <t>Categories</t>
   </si>
@@ -645,7 +645,19 @@
     <t>Attributes</t>
   </si>
   <si>
-    <t>תוספות למוצרים</t>
+    <t>All attributes</t>
+  </si>
+  <si>
+    <t>Add attribute</t>
+  </si>
+  <si>
+    <t>מוצרים נלווים</t>
+  </si>
+  <si>
+    <t>הוסף נלווה</t>
+  </si>
+  <si>
+    <t>כל הנלווים</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1946,7 +1958,23 @@
         <v>205</v>
       </c>
       <c r="C114" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" t="s">
         <v>206</v>
+      </c>
+      <c r="C115" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E33527-8DC8-42FF-B91F-91EF81277EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF35FE-7990-4EE1-A312-D99FE42C0863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="214">
   <si>
     <t>Categories</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Log in</t>
   </si>
   <si>
-    <t>היכנס</t>
-  </si>
-  <si>
     <t>Show Password</t>
   </si>
   <si>
@@ -658,6 +655,18 @@
   </si>
   <si>
     <t>כל הנלווים</t>
+  </si>
+  <si>
+    <t>כניסת משמש</t>
+  </si>
+  <si>
+    <t>Store departments</t>
+  </si>
+  <si>
+    <t>מחלקות החנות</t>
+  </si>
+  <si>
+    <t>shopping cart</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1246,463 +1255,463 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
         <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
         <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
         <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
         <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
         <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
         <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
         <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
         <v>69</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
         <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
         <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
         <v>75</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
         <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
         <v>79</v>
-      </c>
-      <c r="C43" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
         <v>83</v>
-      </c>
-      <c r="C45" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
         <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
         <v>87</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
         <v>89</v>
-      </c>
-      <c r="C48" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
         <v>91</v>
-      </c>
-      <c r="C49" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
         <v>93</v>
-      </c>
-      <c r="C50" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
         <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
         <v>97</v>
-      </c>
-      <c r="C52" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s">
         <v>99</v>
-      </c>
-      <c r="C53" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
         <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
         <v>103</v>
-      </c>
-      <c r="C55" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
         <v>105</v>
-      </c>
-      <c r="C56" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
         <v>107</v>
-      </c>
-      <c r="C57" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
         <v>109</v>
-      </c>
-      <c r="C58" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
         <v>115</v>
-      </c>
-      <c r="C61" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
         <v>117</v>
-      </c>
-      <c r="C62" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
         <v>119</v>
-      </c>
-      <c r="C63" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
         <v>121</v>
-      </c>
-      <c r="C64" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
         <v>123</v>
-      </c>
-      <c r="C65" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" t="s">
         <v>125</v>
-      </c>
-      <c r="C66" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="15.5">
       <c r="B67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" t="s">
         <v>97</v>
-      </c>
-      <c r="C67" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" t="s">
         <v>129</v>
-      </c>
-      <c r="C69" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" t="s">
         <v>131</v>
-      </c>
-      <c r="C70" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" t="s">
         <v>137</v>
-      </c>
-      <c r="C73" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" t="s">
         <v>143</v>
-      </c>
-      <c r="C76" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" t="s">
         <v>145</v>
-      </c>
-      <c r="C77" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" t="s">
         <v>147</v>
-      </c>
-      <c r="C78" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" t="s">
         <v>149</v>
-      </c>
-      <c r="C79" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
         <v>151</v>
-      </c>
-      <c r="C80" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" t="s">
         <v>153</v>
-      </c>
-      <c r="C81" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" t="s">
         <v>155</v>
-      </c>
-      <c r="C82" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="83" spans="2:3">
@@ -1715,50 +1724,50 @@
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" t="s">
         <v>157</v>
-      </c>
-      <c r="C84" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" t="s">
         <v>161</v>
-      </c>
-      <c r="C86" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
         <v>95</v>
-      </c>
-      <c r="C88" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="2:3">
@@ -1771,127 +1780,127 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" t="s">
         <v>165</v>
-      </c>
-      <c r="C91" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" t="s">
         <v>167</v>
-      </c>
-      <c r="C92" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" t="s">
         <v>169</v>
-      </c>
-      <c r="C93" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" t="s">
         <v>171</v>
-      </c>
-      <c r="C94" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" t="s">
         <v>173</v>
-      </c>
-      <c r="C95" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" t="s">
         <v>175</v>
-      </c>
-      <c r="C96" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97" t="s">
         <v>177</v>
-      </c>
-      <c r="C97" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C99" t="s">
         <v>180</v>
-      </c>
-      <c r="C99" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" t="s">
         <v>182</v>
-      </c>
-      <c r="C100" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
+        <v>183</v>
+      </c>
+      <c r="C101" t="s">
         <v>184</v>
-      </c>
-      <c r="C101" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" t="s">
         <v>187</v>
-      </c>
-      <c r="C103" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" t="s">
+        <v>189</v>
+      </c>
+      <c r="C105" t="s">
         <v>190</v>
-      </c>
-      <c r="C105" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -1899,7 +1908,7 @@
     </row>
     <row r="107" spans="2:3">
       <c r="B107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -1907,31 +1916,31 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" t="s">
         <v>193</v>
-      </c>
-      <c r="C108" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" t="s">
         <v>195</v>
-      </c>
-      <c r="C109" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -1939,42 +1948,58 @@
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
+        <v>198</v>
+      </c>
+      <c r="C112" t="s">
         <v>199</v>
-      </c>
-      <c r="C112" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
+        <v>200</v>
+      </c>
+      <c r="C113" t="s">
         <v>201</v>
-      </c>
-      <c r="C113" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C114" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C116" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
+        <v>211</v>
+      </c>
+      <c r="C117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" t="s">
+        <v>213</v>
+      </c>
+      <c r="C118" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF35FE-7990-4EE1-A312-D99FE42C0863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9768F45B-47C5-49B0-B1EE-F5CED2A6A563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="216">
   <si>
     <t>Categories</t>
   </si>
@@ -667,6 +667,12 @@
   </si>
   <si>
     <t>shopping cart</t>
+  </si>
+  <si>
+    <t>Go to  category</t>
+  </si>
+  <si>
+    <t>ראה ,פירוט מוצרים</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2002,6 +2008,14 @@
         <v>62</v>
       </c>
     </row>
+    <row r="119" spans="2:3">
+      <c r="B119" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9768F45B-47C5-49B0-B1EE-F5CED2A6A563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98D68B-2A0B-4ED9-AC59-588ABC9F7928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Credit Card</t>
   </si>
   <si>
-    <t>כרטיס אשראי</t>
-  </si>
-  <si>
     <t>Bit or Pay-Pal</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>איש הקשר והכתובת למשלוח</t>
   </si>
   <si>
-    <t>איסוף עצמי</t>
-  </si>
-  <si>
     <t>Self picking</t>
   </si>
   <si>
@@ -673,6 +667,12 @@
   </si>
   <si>
     <t>ראה ,פירוט מוצרים</t>
+  </si>
+  <si>
+    <t>עצמי</t>
+  </si>
+  <si>
+    <t>אשראי</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1205,47 +1205,47 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -1253,527 +1253,527 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
         <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
         <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
         <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
         <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
         <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
         <v>56</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
         <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
         <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
         <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
         <v>70</v>
-      </c>
-      <c r="C39" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
         <v>72</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
         <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
         <v>76</v>
-      </c>
-      <c r="C42" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
         <v>78</v>
-      </c>
-      <c r="C43" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
         <v>82</v>
-      </c>
-      <c r="C45" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
         <v>84</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
         <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
         <v>88</v>
-      </c>
-      <c r="C48" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
         <v>90</v>
-      </c>
-      <c r="C49" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
         <v>92</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
         <v>94</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
         <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
         <v>98</v>
-      </c>
-      <c r="C53" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
         <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
         <v>102</v>
-      </c>
-      <c r="C55" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
         <v>104</v>
-      </c>
-      <c r="C56" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
         <v>106</v>
-      </c>
-      <c r="C57" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
         <v>108</v>
-      </c>
-      <c r="C58" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
         <v>114</v>
-      </c>
-      <c r="C61" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" t="s">
         <v>116</v>
-      </c>
-      <c r="C62" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" t="s">
         <v>118</v>
-      </c>
-      <c r="C63" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
         <v>120</v>
-      </c>
-      <c r="C64" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
         <v>122</v>
-      </c>
-      <c r="C65" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
         <v>124</v>
-      </c>
-      <c r="C66" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="15.5">
       <c r="B67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" t="s">
         <v>96</v>
-      </c>
-      <c r="C67" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s">
         <v>132</v>
-      </c>
-      <c r="C71" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" t="s">
         <v>133</v>
-      </c>
-      <c r="C72" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
         <v>138</v>
-      </c>
-      <c r="C74" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" t="s">
         <v>139</v>
-      </c>
-      <c r="C75" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
         <v>34</v>
-      </c>
-      <c r="C83" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" t="s">
         <v>94</v>
-      </c>
-      <c r="C88" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="2:3">
@@ -1786,127 +1786,127 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C98" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="107" spans="2:3">
       <c r="B107" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -1922,31 +1922,31 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C108" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C109" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -1954,66 +1954,66 @@
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C112" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C113" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C115" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
+        <v>204</v>
+      </c>
+      <c r="C116" t="s">
         <v>206</v>
-      </c>
-      <c r="C116" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98D68B-2A0B-4ED9-AC59-588ABC9F7928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC473EC6-E2C1-4BB3-8D13-63A3A791B786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="273">
   <si>
     <t>Categories</t>
   </si>
@@ -87,9 +87,6 @@
     <t>הרשם</t>
   </si>
   <si>
-    <t>Log Out</t>
-  </si>
-  <si>
     <t>צא</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>Payment</t>
   </si>
   <si>
-    <t>שיטת תשלום</t>
-  </si>
-  <si>
     <t>Thanks for Ordering</t>
   </si>
   <si>
@@ -673,13 +667,190 @@
   </si>
   <si>
     <t>אשראי</t>
+  </si>
+  <si>
+    <t>Contact Information</t>
+  </si>
+  <si>
+    <t>צור קשר</t>
+  </si>
+  <si>
+    <t>Site Navigation</t>
+  </si>
+  <si>
+    <t>נווט באתר</t>
+  </si>
+  <si>
+    <t>Connections</t>
+  </si>
+  <si>
+    <t>קישורים</t>
+  </si>
+  <si>
+    <t>New Products</t>
+  </si>
+  <si>
+    <t>Featured Products</t>
+  </si>
+  <si>
+    <t>מוצרים חדשים</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>My Cart</t>
+  </si>
+  <si>
+    <t>העגלה שלי</t>
+  </si>
+  <si>
+    <t>collention</t>
+  </si>
+  <si>
+    <t>איסוף</t>
+  </si>
+  <si>
+    <t>המיוחדים</t>
+  </si>
+  <si>
+    <t>On Sale Products</t>
+  </si>
+  <si>
+    <t>מוצרים במבצע</t>
+  </si>
+  <si>
+    <t>Featured</t>
+  </si>
+  <si>
+    <t>ש"ח</t>
+  </si>
+  <si>
+    <t>served today</t>
+  </si>
+  <si>
+    <t>מוגש היום</t>
+  </si>
+  <si>
+    <t>העגלה</t>
+  </si>
+  <si>
+    <t>User Contact Details</t>
+  </si>
+  <si>
+    <t>פרטי הקשר שלך</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Contact name *</t>
+  </si>
+  <si>
+    <t>Street + Flat/House number *</t>
+  </si>
+  <si>
+    <t>רחוב ומספר בית*</t>
+  </si>
+  <si>
+    <t>שם איש קשר*</t>
+  </si>
+  <si>
+    <t>Contact Phone 0524534555 *</t>
+  </si>
+  <si>
+    <t>מספר טלפון (0524534533)*</t>
+  </si>
+  <si>
+    <t>Email-Adress *</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>קוד דואר</t>
+  </si>
+  <si>
+    <t>כתובת אימייל*</t>
+  </si>
+  <si>
+    <t>Delivery Address</t>
+  </si>
+  <si>
+    <t>פרטי הלקוח וכתובת למשלוח</t>
+  </si>
+  <si>
+    <t>Select Date and Time</t>
+  </si>
+  <si>
+    <t>בחר יום ושעה</t>
+  </si>
+  <si>
+    <t>תשלום</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>צקאאוט</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>יום ראשון</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>שני</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>שלישי</t>
+  </si>
+  <si>
+    <t>wendsday</t>
+  </si>
+  <si>
+    <t>רביעי</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>חמישי</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>שישי</t>
+  </si>
+  <si>
+    <t>Proccess to payment</t>
+  </si>
+  <si>
+    <t>המשך לתשלום</t>
+  </si>
+  <si>
+    <t>Pay with all credit cards</t>
+  </si>
+  <si>
+    <t>תשלום בכל סוגי כרטיסי האשראי</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +869,12 @@
       <sz val="11"/>
       <color rgb="FF91699C"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -720,12 +897,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1130,7 +1310,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1145,27 +1325,24 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1178,74 +1355,74 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
         <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -1253,527 +1430,527 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
         <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
         <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
         <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
         <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
         <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
         <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
         <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
         <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
         <v>69</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
         <v>71</v>
-      </c>
-      <c r="C40" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
         <v>73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
         <v>75</v>
-      </c>
-      <c r="C42" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
         <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
         <v>79</v>
-      </c>
-      <c r="C44" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
         <v>83</v>
-      </c>
-      <c r="C46" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
         <v>85</v>
-      </c>
-      <c r="C47" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
         <v>87</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
         <v>89</v>
-      </c>
-      <c r="C49" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
         <v>91</v>
-      </c>
-      <c r="C50" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
         <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
         <v>95</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
         <v>97</v>
-      </c>
-      <c r="C53" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
         <v>109</v>
-      </c>
-      <c r="C59" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="15.5">
       <c r="B67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
         <v>95</v>
-      </c>
-      <c r="C67" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
         <v>130</v>
-      </c>
-      <c r="C71" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
         <v>131</v>
-      </c>
-      <c r="C72" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" t="s">
         <v>136</v>
-      </c>
-      <c r="C74" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" t="s">
         <v>137</v>
-      </c>
-      <c r="C75" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
         <v>33</v>
-      </c>
-      <c r="C83" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
         <v>93</v>
-      </c>
-      <c r="C88" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="2:3">
@@ -1786,167 +1963,167 @@
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C98" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="B107" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C108" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C110" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -1954,66 +2131,298 @@
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C112" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C113" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C114" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" t="s">
         <v>204</v>
-      </c>
-      <c r="C116" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C117" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C121" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C122" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C126" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C127" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C129" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C130" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C131" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C132" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C133" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C135" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C137" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C138" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C139" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C140" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C142" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C143" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C144" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C145" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C146" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C147" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C148" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC473EC6-E2C1-4BB3-8D13-63A3A791B786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2B1B6A-58C8-4CBE-8BEB-28D10F50F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="273">
   <si>
     <t>Categories</t>
   </si>
@@ -714,9 +714,6 @@
     <t>איסוף</t>
   </si>
   <si>
-    <t>המיוחדים</t>
-  </si>
-  <si>
     <t>On Sale Products</t>
   </si>
   <si>
@@ -844,6 +841,9 @@
   </si>
   <si>
     <t>תשלום בכל סוגי כרטיסי האשראי</t>
+  </si>
+  <si>
+    <t>ספיישלים</t>
   </si>
 </sst>
 </file>
@@ -1220,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1510,7 +1510,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -1526,7 +1526,7 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -1670,7 +1670,7 @@
         <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -2230,7 +2230,7 @@
         <v>221</v>
       </c>
       <c r="C124" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="2:3">
@@ -2259,15 +2259,15 @@
     </row>
     <row r="128" spans="2:3">
       <c r="B128" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C128" t="s">
         <v>230</v>
-      </c>
-      <c r="C128" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C129" t="s">
         <v>195</v>
@@ -2275,23 +2275,23 @@
     </row>
     <row r="130" spans="2:3">
       <c r="B130" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C130" t="s">
         <v>234</v>
-      </c>
-      <c r="C130" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C131" t="s">
         <v>237</v>
-      </c>
-      <c r="C131" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C132" t="s">
         <v>79</v>
@@ -2299,130 +2299,146 @@
     </row>
     <row r="133" spans="2:3">
       <c r="B133" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C133" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C134" t="s">
         <v>241</v>
-      </c>
-      <c r="C134" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="135" spans="2:3">
       <c r="B135" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C135" t="s">
         <v>244</v>
-      </c>
-      <c r="C135" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C136" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" t="s">
         <v>247</v>
-      </c>
-      <c r="C137" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C138" t="s">
         <v>250</v>
-      </c>
-      <c r="C138" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C139" t="s">
         <v>252</v>
-      </c>
-      <c r="C139" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140" t="s">
         <v>255</v>
-      </c>
-      <c r="C140" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C141" t="s">
         <v>257</v>
-      </c>
-      <c r="C141" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C142" t="s">
         <v>259</v>
-      </c>
-      <c r="C142" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="143" spans="2:3">
       <c r="B143" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C143" t="s">
         <v>261</v>
-      </c>
-      <c r="C143" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" t="s">
         <v>263</v>
-      </c>
-      <c r="C144" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C145" t="s">
         <v>265</v>
-      </c>
-      <c r="C145" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C146" t="s">
         <v>267</v>
-      </c>
-      <c r="C146" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C147" t="s">
         <v>269</v>
-      </c>
-      <c r="C147" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C148" t="s">
         <v>271</v>
       </c>
-      <c r="C148" t="s">
-        <v>272</v>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C149" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C150" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2B1B6A-58C8-4CBE-8BEB-28D10F50F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153289A9-8334-4B42-8C57-CDB923F71D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="287">
   <si>
     <t>Categories</t>
   </si>
@@ -555,9 +555,6 @@
     <t>Deliveries</t>
   </si>
   <si>
-    <t>משלוחים</t>
-  </si>
-  <si>
     <t>All Deliveries</t>
   </si>
   <si>
@@ -844,6 +841,51 @@
   </si>
   <si>
     <t>ספיישלים</t>
+  </si>
+  <si>
+    <t>Sign In Now</t>
+  </si>
+  <si>
+    <t>כנס עכשיו</t>
+  </si>
+  <si>
+    <t>Sign Up Now</t>
+  </si>
+  <si>
+    <t>הירשם עכשיו</t>
+  </si>
+  <si>
+    <t>Don't have an account?</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>היכנס</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>ברוך הבא</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>cost without delivery</t>
+  </si>
+  <si>
+    <t>עלות ללא משלוח</t>
+  </si>
+  <si>
+    <t>סוגי משלוחים</t>
+  </si>
+  <si>
+    <t>המשך לקנייה</t>
   </si>
 </sst>
 </file>
@@ -1220,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1310,7 +1352,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1382,7 +1424,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -1438,7 +1480,7 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -1510,7 +1552,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -1526,7 +1568,7 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -1670,7 +1712,7 @@
         <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -1782,7 +1824,7 @@
         <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="2:3">
@@ -2030,60 +2072,60 @@
         <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" t="s">
         <v>177</v>
-      </c>
-      <c r="C100" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" t="s">
         <v>179</v>
-      </c>
-      <c r="C101" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" t="s">
         <v>182</v>
-      </c>
-      <c r="C103" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" t="s">
         <v>185</v>
-      </c>
-      <c r="C105" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -2091,7 +2133,7 @@
     </row>
     <row r="107" spans="2:3">
       <c r="B107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -2099,18 +2141,18 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" t="s">
         <v>188</v>
-      </c>
-      <c r="C108" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" t="s">
         <v>190</v>
-      </c>
-      <c r="C109" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="110" spans="2:3">
@@ -2118,12 +2160,12 @@
         <v>62</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -2131,55 +2173,55 @@
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" t="s">
         <v>194</v>
-      </c>
-      <c r="C112" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C113" t="s">
         <v>196</v>
-      </c>
-      <c r="C113" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117" t="s">
         <v>207</v>
-      </c>
-      <c r="C117" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C118" t="s">
         <v>60</v>
@@ -2187,55 +2229,55 @@
     </row>
     <row r="119" spans="2:3">
       <c r="B119" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" t="s">
         <v>210</v>
-      </c>
-      <c r="C119" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C120" t="s">
         <v>214</v>
-      </c>
-      <c r="C120" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="B121" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C121" t="s">
         <v>216</v>
-      </c>
-      <c r="C121" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C122" t="s">
         <v>218</v>
-      </c>
-      <c r="C122" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="123" spans="2:3">
       <c r="B123" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="B124" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C124" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
@@ -2243,55 +2285,55 @@
     </row>
     <row r="126" spans="2:3">
       <c r="B126" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C126" t="s">
         <v>225</v>
-      </c>
-      <c r="C126" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="B127" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C127" t="s">
         <v>227</v>
-      </c>
-      <c r="C127" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="B128" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C128" t="s">
         <v>229</v>
-      </c>
-      <c r="C128" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C130" t="s">
         <v>233</v>
-      </c>
-      <c r="C130" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" t="s">
         <v>236</v>
-      </c>
-      <c r="C131" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C132" t="s">
         <v>79</v>
@@ -2299,130 +2341,130 @@
     </row>
     <row r="133" spans="2:3">
       <c r="B133" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C133" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" t="s">
         <v>240</v>
-      </c>
-      <c r="C134" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="135" spans="2:3">
       <c r="B135" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C135" t="s">
         <v>243</v>
-      </c>
-      <c r="C135" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C136" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137" t="s">
         <v>246</v>
-      </c>
-      <c r="C137" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C138" t="s">
         <v>249</v>
-      </c>
-      <c r="C138" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C139" t="s">
         <v>251</v>
-      </c>
-      <c r="C139" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C140" t="s">
         <v>254</v>
-      </c>
-      <c r="C140" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C141" t="s">
         <v>256</v>
-      </c>
-      <c r="C141" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C142" t="s">
         <v>258</v>
-      </c>
-      <c r="C142" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="143" spans="2:3">
       <c r="B143" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C143" t="s">
         <v>260</v>
-      </c>
-      <c r="C143" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C144" t="s">
         <v>262</v>
-      </c>
-      <c r="C144" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C145" t="s">
         <v>264</v>
-      </c>
-      <c r="C145" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C146" t="s">
         <v>266</v>
-      </c>
-      <c r="C146" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C147" t="s">
         <v>268</v>
-      </c>
-      <c r="C147" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C148" t="s">
         <v>270</v>
-      </c>
-      <c r="C148" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="149" spans="2:3">
@@ -2430,7 +2472,7 @@
         <v>123</v>
       </c>
       <c r="C149" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="2:3">
@@ -2439,6 +2481,78 @@
       </c>
       <c r="C150" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" t="s">
+        <v>272</v>
+      </c>
+      <c r="C151" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" t="s">
+        <v>274</v>
+      </c>
+      <c r="C152" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C153" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" t="s">
+        <v>277</v>
+      </c>
+      <c r="C154" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" t="s">
+        <v>279</v>
+      </c>
+      <c r="C155" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C156" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C157" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" t="s">
+        <v>283</v>
+      </c>
+      <c r="C158" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153289A9-8334-4B42-8C57-CDB923F71D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F9F855-A8F7-46F9-B2F4-D3141F262367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="295">
   <si>
     <t>Categories</t>
   </si>
@@ -886,6 +886,30 @@
   </si>
   <si>
     <t>המשך לקנייה</t>
+  </si>
+  <si>
+    <t>Save changes</t>
+  </si>
+  <si>
+    <t>שמור    וצא</t>
+  </si>
+  <si>
+    <t>Your order has been accepted payment succed</t>
+  </si>
+  <si>
+    <t>הזמנתך התקבלה בהצלחה התשלום בוצע</t>
+  </si>
+  <si>
+    <t>Sorry yout payment was not accepted. Order not palced</t>
+  </si>
+  <si>
+    <t>מצטערים התשלום לא התקבל ולפיכך ההזמנה לא  תבוצע</t>
+  </si>
+  <si>
+    <t>order Number</t>
+  </si>
+  <si>
+    <t>קוד ההזמנה</t>
   </si>
 </sst>
 </file>
@@ -1262,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2555,6 +2579,38 @@
         <v>286</v>
       </c>
     </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C160" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C161" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C162" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C163" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F9F855-A8F7-46F9-B2F4-D3141F262367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ED3224-CAE7-4DE9-B537-3D1C3B7D90BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="297">
   <si>
     <t>Categories</t>
   </si>
@@ -910,6 +910,12 @@
   </si>
   <si>
     <t>קוד ההזמנה</t>
+  </si>
+  <si>
+    <t>Date and time</t>
+  </si>
+  <si>
+    <t>יום ושעה למסירה</t>
   </si>
 </sst>
 </file>
@@ -1286,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="I159" sqref="I159"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2611,6 +2617,14 @@
         <v>294</v>
       </c>
     </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C164" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ED3224-CAE7-4DE9-B537-3D1C3B7D90BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF98B0A-DA66-456C-B757-92AE7F4ADAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="300">
   <si>
     <t>Categories</t>
   </si>
@@ -600,9 +601,6 @@
     <t>הוסף לעגלה</t>
   </si>
   <si>
-    <t>שח</t>
-  </si>
-  <si>
     <t>on sale</t>
   </si>
   <si>
@@ -916,6 +914,18 @@
   </si>
   <si>
     <t>יום ושעה למסירה</t>
+  </si>
+  <si>
+    <t>ש``ח</t>
+  </si>
+  <si>
+    <t>Delivery to costumer</t>
+  </si>
+  <si>
+    <t>מסירה ללקוח</t>
+  </si>
+  <si>
+    <t>כתובת</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1382,7 +1392,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1454,7 +1464,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -1510,7 +1520,7 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -1582,7 +1592,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -1598,7 +1608,7 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -1742,7 +1752,7 @@
         <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -1854,7 +1864,7 @@
         <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="2:3">
@@ -2102,7 +2112,7 @@
         <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="2:3">
@@ -2126,7 +2136,7 @@
         <v>180</v>
       </c>
       <c r="C102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="2:3">
@@ -2142,7 +2152,7 @@
         <v>183</v>
       </c>
       <c r="C104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="2:3">
@@ -2190,12 +2200,12 @@
         <v>62</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -2203,55 +2213,55 @@
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" t="s">
         <v>193</v>
-      </c>
-      <c r="C112" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" t="s">
         <v>195</v>
-      </c>
-      <c r="C113" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" t="s">
         <v>206</v>
-      </c>
-      <c r="C117" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C118" t="s">
         <v>60</v>
@@ -2259,55 +2269,55 @@
     </row>
     <row r="119" spans="2:3">
       <c r="B119" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" t="s">
         <v>209</v>
-      </c>
-      <c r="C119" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C120" t="s">
         <v>213</v>
-      </c>
-      <c r="C120" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="B121" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C121" t="s">
         <v>215</v>
-      </c>
-      <c r="C121" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C122" t="s">
         <v>217</v>
-      </c>
-      <c r="C122" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="123" spans="2:3">
       <c r="B123" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C123" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="B124" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C124" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
@@ -2315,55 +2325,55 @@
     </row>
     <row r="126" spans="2:3">
       <c r="B126" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C126" t="s">
         <v>224</v>
-      </c>
-      <c r="C126" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="B127" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" t="s">
         <v>226</v>
-      </c>
-      <c r="C127" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="B128" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" t="s">
         <v>228</v>
-      </c>
-      <c r="C128" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" t="s">
         <v>232</v>
-      </c>
-      <c r="C130" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C131" t="s">
         <v>235</v>
-      </c>
-      <c r="C131" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C132" t="s">
         <v>79</v>
@@ -2371,130 +2381,130 @@
     </row>
     <row r="133" spans="2:3">
       <c r="B133" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C133" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C134" t="s">
         <v>239</v>
-      </c>
-      <c r="C134" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="135" spans="2:3">
       <c r="B135" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C135" t="s">
         <v>242</v>
-      </c>
-      <c r="C135" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C137" t="s">
         <v>245</v>
-      </c>
-      <c r="C137" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C138" t="s">
         <v>248</v>
-      </c>
-      <c r="C138" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C139" t="s">
         <v>250</v>
-      </c>
-      <c r="C139" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C140" t="s">
         <v>253</v>
-      </c>
-      <c r="C140" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" t="s">
         <v>255</v>
-      </c>
-      <c r="C141" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C142" t="s">
         <v>257</v>
-      </c>
-      <c r="C142" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="143" spans="2:3">
       <c r="B143" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C143" t="s">
         <v>259</v>
-      </c>
-      <c r="C143" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C144" t="s">
         <v>261</v>
-      </c>
-      <c r="C144" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C145" t="s">
         <v>263</v>
-      </c>
-      <c r="C145" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C146" t="s">
         <v>265</v>
-      </c>
-      <c r="C146" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C147" t="s">
         <v>267</v>
-      </c>
-      <c r="C147" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C148" t="s">
         <v>269</v>
-      </c>
-      <c r="C148" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="149" spans="2:3">
@@ -2502,7 +2512,7 @@
         <v>123</v>
       </c>
       <c r="C149" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="2:3">
@@ -2515,23 +2525,23 @@
     </row>
     <row r="151" spans="2:3">
       <c r="B151" t="s">
+        <v>271</v>
+      </c>
+      <c r="C151" t="s">
         <v>272</v>
-      </c>
-      <c r="C151" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="B152" t="s">
+        <v>273</v>
+      </c>
+      <c r="C152" t="s">
         <v>274</v>
-      </c>
-      <c r="C152" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="B153" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C153" t="s">
         <v>41</v>
@@ -2539,23 +2549,23 @@
     </row>
     <row r="154" spans="2:3">
       <c r="B154" t="s">
+        <v>276</v>
+      </c>
+      <c r="C154" t="s">
         <v>277</v>
-      </c>
-      <c r="C154" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="B155" t="s">
+        <v>278</v>
+      </c>
+      <c r="C155" t="s">
         <v>279</v>
-      </c>
-      <c r="C155" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="B156" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C156" t="s">
         <v>47</v>
@@ -2563,7 +2573,7 @@
     </row>
     <row r="157" spans="2:3">
       <c r="B157" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C157" t="s">
         <v>108</v>
@@ -2571,10 +2581,10 @@
     </row>
     <row r="158" spans="2:3">
       <c r="B158" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158" t="s">
         <v>283</v>
-      </c>
-      <c r="C158" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="159" spans="2:3">
@@ -2582,47 +2592,63 @@
         <v>25</v>
       </c>
       <c r="C159" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="160" spans="2:3">
       <c r="B160" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C160" t="s">
         <v>287</v>
-      </c>
-      <c r="C160" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C161" t="s">
         <v>289</v>
-      </c>
-      <c r="C161" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="162" spans="2:3">
       <c r="B162" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C162" t="s">
         <v>291</v>
-      </c>
-      <c r="C162" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C163" t="s">
         <v>293</v>
-      </c>
-      <c r="C163" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C164" t="s">
         <v>295</v>
       </c>
-      <c r="C164" t="s">
-        <v>296</v>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C165" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C166" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF98B0A-DA66-456C-B757-92AE7F4ADAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6339E921-543E-4F43-8EA9-12749AF97E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6339E921-543E-4F43-8EA9-12749AF97E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E85585-FE81-4DFB-AE1D-E76F98A6D0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -754,9 +753,6 @@
     <t>Contact Phone 0524534555 *</t>
   </si>
   <si>
-    <t>מספר טלפון (0524534533)*</t>
-  </si>
-  <si>
     <t>Email-Adress *</t>
   </si>
   <si>
@@ -926,6 +922,9 @@
   </si>
   <si>
     <t>כתובת</t>
+  </si>
+  <si>
+    <t>מספר טלפ ן   (10 ספרות בדיוק. לדוגמא 0524534533)*</t>
   </si>
 </sst>
 </file>
@@ -1304,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1608,7 +1607,7 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -1752,7 +1751,7 @@
         <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -2112,7 +2111,7 @@
         <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="2:3">
@@ -2312,7 +2311,7 @@
         <v>219</v>
       </c>
       <c r="C124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="2:3">
@@ -2400,111 +2399,111 @@
         <v>241</v>
       </c>
       <c r="C135" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C136" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C137" t="s">
         <v>244</v>
-      </c>
-      <c r="C137" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C138" t="s">
         <v>247</v>
-      </c>
-      <c r="C138" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C139" t="s">
         <v>249</v>
-      </c>
-      <c r="C139" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C140" t="s">
         <v>252</v>
-      </c>
-      <c r="C140" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141" t="s">
         <v>254</v>
-      </c>
-      <c r="C141" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C142" t="s">
         <v>256</v>
-      </c>
-      <c r="C142" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="143" spans="2:3">
       <c r="B143" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C143" t="s">
         <v>258</v>
-      </c>
-      <c r="C143" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C144" t="s">
         <v>260</v>
-      </c>
-      <c r="C144" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C145" t="s">
         <v>262</v>
-      </c>
-      <c r="C145" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C146" t="s">
         <v>264</v>
-      </c>
-      <c r="C146" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C147" t="s">
         <v>266</v>
-      </c>
-      <c r="C147" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C148" t="s">
         <v>268</v>
-      </c>
-      <c r="C148" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="149" spans="2:3">
@@ -2525,23 +2524,23 @@
     </row>
     <row r="151" spans="2:3">
       <c r="B151" t="s">
+        <v>270</v>
+      </c>
+      <c r="C151" t="s">
         <v>271</v>
-      </c>
-      <c r="C151" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="B152" t="s">
+        <v>272</v>
+      </c>
+      <c r="C152" t="s">
         <v>273</v>
-      </c>
-      <c r="C152" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="B153" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C153" t="s">
         <v>41</v>
@@ -2549,23 +2548,23 @@
     </row>
     <row r="154" spans="2:3">
       <c r="B154" t="s">
+        <v>275</v>
+      </c>
+      <c r="C154" t="s">
         <v>276</v>
-      </c>
-      <c r="C154" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="B155" t="s">
+        <v>277</v>
+      </c>
+      <c r="C155" t="s">
         <v>278</v>
-      </c>
-      <c r="C155" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="B156" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C156" t="s">
         <v>47</v>
@@ -2573,7 +2572,7 @@
     </row>
     <row r="157" spans="2:3">
       <c r="B157" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C157" t="s">
         <v>108</v>
@@ -2581,10 +2580,10 @@
     </row>
     <row r="158" spans="2:3">
       <c r="B158" t="s">
+        <v>281</v>
+      </c>
+      <c r="C158" t="s">
         <v>282</v>
-      </c>
-      <c r="C158" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="159" spans="2:3">
@@ -2592,55 +2591,55 @@
         <v>25</v>
       </c>
       <c r="C159" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="160" spans="2:3">
       <c r="B160" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C160" t="s">
         <v>286</v>
-      </c>
-      <c r="C160" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C161" t="s">
         <v>288</v>
-      </c>
-      <c r="C161" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="162" spans="2:3">
       <c r="B162" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C162" t="s">
         <v>290</v>
-      </c>
-      <c r="C162" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C163" t="s">
         <v>292</v>
-      </c>
-      <c r="C163" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C164" t="s">
         <v>294</v>
-      </c>
-      <c r="C164" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="165" spans="2:3">
       <c r="B165" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" t="s">
         <v>297</v>
-      </c>
-      <c r="C165" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="166" spans="2:3">
@@ -2648,7 +2647,7 @@
         <v>76</v>
       </c>
       <c r="C166" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E85585-FE81-4DFB-AE1D-E76F98A6D0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B62D36-0DBA-46DE-8AB5-15C7EBC18DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="302">
   <si>
     <t>Categories</t>
   </si>
@@ -924,7 +924,13 @@
     <t>כתובת</t>
   </si>
   <si>
-    <t>מספר טלפ ן   (10 ספרות בדיוק. לדוגמא 0524534533)*</t>
+    <t>מספר טלפון* 10 ספרות בדיוק. לדוגמא- 0524534533</t>
+  </si>
+  <si>
+    <t>Pay Pal Payment ID</t>
+  </si>
+  <si>
+    <t>קוד מזהה לעסקה בפיי פל</t>
   </si>
 </sst>
 </file>
@@ -1301,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="J141" sqref="J141"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2650,6 +2656,14 @@
         <v>298</v>
       </c>
     </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C167" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B62D36-0DBA-46DE-8AB5-15C7EBC18DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45A55A1-5592-46E3-A6FD-18007C35F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="304">
   <si>
     <t>Categories</t>
   </si>
@@ -931,6 +931,12 @@
   </si>
   <si>
     <t>קוד מזהה לעסקה בפיי פל</t>
+  </si>
+  <si>
+    <t>Continue to product</t>
+  </si>
+  <si>
+    <t>עבור למוצר</t>
   </si>
 </sst>
 </file>
@@ -1307,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+      <selection activeCell="N165" sqref="N165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2664,6 +2670,22 @@
         <v>301</v>
       </c>
     </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C168" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C169" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45A55A1-5592-46E3-A6FD-18007C35F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C9AC27-16CC-4573-B320-74BCE27CD843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="306">
   <si>
     <t>Categories</t>
   </si>
@@ -937,6 +937,12 @@
   </si>
   <si>
     <t>עבור למוצר</t>
+  </si>
+  <si>
+    <t>Shop Closed</t>
+  </si>
+  <si>
+    <t>החנות סגורה</t>
   </si>
 </sst>
 </file>
@@ -1313,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="N165" sqref="N165"/>
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2686,6 +2692,14 @@
         <v>104</v>
       </c>
     </row>
+    <row r="170" spans="2:3">
+      <c r="B170" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C170" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C9AC27-16CC-4573-B320-74BCE27CD843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E38532-334E-4225-B4BF-6530190FFEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="313">
   <si>
     <t>Categories</t>
   </si>
@@ -943,6 +943,27 @@
   </si>
   <si>
     <t>החנות סגורה</t>
+  </si>
+  <si>
+    <t>הוסף</t>
+  </si>
+  <si>
+    <t>Payment status</t>
+  </si>
+  <si>
+    <t>מצב תשלום</t>
+  </si>
+  <si>
+    <t>unfulfilled</t>
+  </si>
+  <si>
+    <t>לא שולם</t>
+  </si>
+  <si>
+    <t>fulfilled</t>
+  </si>
+  <si>
+    <t>שולם</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2700,6 +2721,38 @@
         <v>305</v>
       </c>
     </row>
+    <row r="171" spans="2:3">
+      <c r="B171" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C171" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C172" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C173" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" t="s">
+        <v>311</v>
+      </c>
+      <c r="C174" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flaskshop/static/uploads/language.xlsx
+++ b/flaskshop/static/uploads/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\flask-shop\flask-shop-master\flaskshop\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E38532-334E-4225-B4BF-6530190FFEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69EDDDA-9FA8-4B7C-85A3-59B8896C51E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D161516E-A859-41C9-B7BC-B44E83DEC2A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="316">
   <si>
     <t>Categories</t>
   </si>
@@ -964,6 +964,15 @@
   </si>
   <si>
     <t>שולם</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>שם חברה</t>
+  </si>
+  <si>
+    <t>Company name</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED17F14-EF2B-4A00-A544-E664C5FAB3A5}">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2753,6 +2762,22 @@
         <v>312</v>
       </c>
     </row>
+    <row r="175" spans="2:3">
+      <c r="B175" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C175" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C176" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
